--- a/static/template/peoples.xlsx
+++ b/static/template/peoples.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eduground.uz\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887608C5-C0CE-46FA-AE52-5AFCBC5756E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEF6129-9970-44FB-8B78-5BB4EBDC1559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,21 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tel raqam</t>
-  </si>
-  <si>
-    <t>Tug'ilgan sana (YYYY.OO.KK)</t>
   </si>
   <si>
     <t>Ism Familiya</t>
   </si>
   <si>
     <t>Abduazim Abdusalomov</t>
-  </si>
-  <si>
-    <t>2014.02.02</t>
   </si>
   <si>
     <t>+998333932580</t>
@@ -108,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -126,12 +120,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,41 +436,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="31.7109375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
